--- a/NYPA DER Inputs.xlsx
+++ b/NYPA DER Inputs.xlsx
@@ -8,22 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwelch\Documents\Repos\Nexant\SPIDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE6DEF-578B-4957-A9BF-F9F9F5F24FFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482E3094-55F9-4847-95A1-2BAA949B7981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NYPA Market Fraction" sheetId="1" r:id="rId1"/>
+    <sheet name="NYPA % of Natural Market" sheetId="1" r:id="rId1"/>
+    <sheet name="PV Suitability" sheetId="2" r:id="rId2"/>
+    <sheet name="PV Incentive" sheetId="5" r:id="rId3"/>
+    <sheet name="Storage Incentive" sheetId="4" r:id="rId4"/>
+    <sheet name="ITC" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="NYPA_Mkt_Fraction">'NYPA Market Fraction'!$A$1:$F$91</definedName>
+    <definedName name="NYPA_Mkt_Fraction">'NYPA % of Natural Market'!$A$1:$F$91</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="63">
   <si>
     <t>Sector</t>
   </si>
@@ -141,12 +156,87 @@
   <si>
     <t>Land</t>
   </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Downstate_cz</t>
+  </si>
+  <si>
+    <t>Hudson Valley_cz</t>
+  </si>
+  <si>
+    <t>Upstate_cz</t>
+  </si>
+  <si>
+    <t>Long Island_cz</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: </t>
+  </si>
+  <si>
+    <t>Units:</t>
+  </si>
+  <si>
+    <t>m2 of usable area divided by m2 of input total PV area (when m2 is the PV building stock basis)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Percent of the natural market adoption of solar or solar+storage assumed to be "enabled" by NYPA</t>
+  </si>
+  <si>
+    <t>$/kW-DC</t>
+  </si>
+  <si>
+    <t>Expected incentives for PV installations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$/kW-hr of storage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected incentives for storage installations (paired with solar). For translation from $/kW (if desired), current model assumes a 3.5-hr storage system at peak storage capacity in kW-AC. </t>
+  </si>
+  <si>
+    <t>Expected investment tax credit for systems owned by a commercial entity</t>
+  </si>
+  <si>
+    <t>% of installed cost</t>
+  </si>
+  <si>
+    <t>no change to community adders over time ($0.10/W for Downstate, 0 elsewhere)</t>
+  </si>
+  <si>
+    <t>parking canopy adder? Only applicable downstate. $0.20/W</t>
+  </si>
+  <si>
+    <t>"inclusive" CG adder of additional $0.10/W (not included)</t>
+  </si>
+  <si>
+    <t>upstate inclusive CG adder of $0.05 (not included in model)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +371,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,8 +558,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -578,8 +692,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -622,23 +751,56 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -666,6 +828,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -678,6 +841,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -992,24 +1156,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="19.28515625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1028,1803 +1195,1815 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C8" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C13" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C14" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="C16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="C17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="C18" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="C19" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="C20" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="C21" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="C22" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="C23" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="C24" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="C25" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="C26" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="C27" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="C28" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="C29" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="C30" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="C31" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="C32" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="C33" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="C34" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F34" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="C35" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F35" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="C36" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F36" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="C37" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="C38" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="C39" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F39" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="C40" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F40" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="C41" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="C42" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F42" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="C43" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F43" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="C44" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="C45" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F45" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="C46" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F46" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="C47" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F47" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="C48" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F48" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="C49" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F49" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="C50" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F50" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="C51" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F51" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="C52" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F52" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F53" s="1">
+      <c r="C53" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F53" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="C54" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E54" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F54" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="C55" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D55" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E55" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="C56" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E56" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F56" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="C57" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D57" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E57" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F58" s="1">
+      <c r="C58" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D58" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E58" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="C59" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D59" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E59" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="C60" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D60" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E60" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F60" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F61" s="1">
+      <c r="C61" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D61" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E61" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F61" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F62" s="1">
+      <c r="C62" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D62" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E62" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F62" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F63" s="1">
+      <c r="C63" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D63" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E63" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F63" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="C64" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D64" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E64" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F64" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="C65" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D65" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E65" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F65" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="C66" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D66" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E66" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F66" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E67" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F67" s="1">
+      <c r="C67" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D67" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E67" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F67" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F68" s="1">
+      <c r="C68" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D68" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E68" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F68" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="C69" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D69" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E69" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F69" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="C70" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D70" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E70" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F70" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="C71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F71" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E72" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F72" s="1">
+      <c r="C72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F72" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F73" s="1">
+      <c r="C73" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D73" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E73" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F73" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C74" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="C74" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D74" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E74" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F74" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="C75" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D75" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E75" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F75" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F76" s="1">
+      <c r="C76" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D76" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E76" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F76" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F77" s="1">
+      <c r="C77" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D77" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E77" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F77" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F78" s="1">
+      <c r="C78" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D78" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E78" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F78" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F79" s="1">
+      <c r="C79" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D79" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E79" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F79" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F80" s="1">
+      <c r="C80" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D80" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E80" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F80" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E81" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F81" s="1">
+      <c r="C81" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D81" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E81" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F81" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F82" s="1">
+      <c r="C82" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D82" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E82" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F82" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F83" s="1">
+      <c r="C83" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D83" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E83" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F83" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F84" s="1">
+      <c r="C84" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D84" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E84" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F84" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F85" s="1">
+      <c r="C85" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D85" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E85" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F85" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F86" s="1">
+      <c r="C86" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D86" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E86" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F86" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C87" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F87" s="1">
+      <c r="C87" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D87" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E87" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F87" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E88" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F88" s="1">
+      <c r="C88" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D88" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E88" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F88" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E89" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F89" s="1">
+      <c r="C89" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D89" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E89" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F89" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F90" s="1">
+      <c r="C90" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D90" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E90" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F90" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C91" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F91" s="1">
+      <c r="C91" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D91" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E91" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F91" s="16">
         <v>0.2</v>
       </c>
     </row>
@@ -2832,4 +3011,5750 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5D4315-607D-46E1-ADB0-514646580373}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="15" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3AF6D9-9149-406C-AFB0-4BE71194DCC1}">
+  <dimension ref="A1:BZ188"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="19.140625" style="4" customWidth="1"/>
+    <col min="9" max="78" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C2" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+      <c r="D2" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+      <c r="F2" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2011</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C7" s="13">
+        <v>794.77618758581002</v>
+      </c>
+      <c r="D7" s="13">
+        <v>794.77618758581002</v>
+      </c>
+      <c r="E7" s="13">
+        <v>794.77618758581002</v>
+      </c>
+      <c r="F7" s="13">
+        <v>794.77618758581002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="13">
+        <v>484.81303637444501</v>
+      </c>
+      <c r="D8" s="13">
+        <v>484.81303637444501</v>
+      </c>
+      <c r="E8" s="13">
+        <v>484.81303637444501</v>
+      </c>
+      <c r="F8" s="13">
+        <v>484.81303637444501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C9" s="13">
+        <v>426.73445842616297</v>
+      </c>
+      <c r="D9" s="13">
+        <v>426.73445842616297</v>
+      </c>
+      <c r="E9" s="13">
+        <v>426.73445842616297</v>
+      </c>
+      <c r="F9" s="13">
+        <v>426.73445842616297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="13">
+        <v>479.421127239886</v>
+      </c>
+      <c r="D10" s="13">
+        <v>479.421127239886</v>
+      </c>
+      <c r="E10" s="13">
+        <v>479.421127239886</v>
+      </c>
+      <c r="F10" s="13">
+        <v>479.421127239886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="13">
+        <v>394.905212583278</v>
+      </c>
+      <c r="D11" s="13">
+        <v>394.905212583278</v>
+      </c>
+      <c r="E11" s="13">
+        <v>394.905212583278</v>
+      </c>
+      <c r="F11" s="13">
+        <v>394.905212583278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="13">
+        <v>554.37580583667602</v>
+      </c>
+      <c r="D12" s="13">
+        <v>554.37580583667602</v>
+      </c>
+      <c r="E12" s="13">
+        <v>554.37580583667602</v>
+      </c>
+      <c r="F12" s="13">
+        <v>554.37580583667602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="13">
+        <v>542.56100297474904</v>
+      </c>
+      <c r="D13" s="13">
+        <v>542.56100297474904</v>
+      </c>
+      <c r="E13" s="13">
+        <v>542.56100297474904</v>
+      </c>
+      <c r="F13" s="13">
+        <v>542.56100297474904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="13">
+        <v>470.23237236206</v>
+      </c>
+      <c r="D14" s="13">
+        <v>470.23237236206</v>
+      </c>
+      <c r="E14" s="13">
+        <v>470.23237236206</v>
+      </c>
+      <c r="F14" s="13">
+        <v>470.23237236206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1005</v>
+      </c>
+      <c r="D15" s="14">
+        <v>170</v>
+      </c>
+      <c r="E15" s="14">
+        <v>170</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1005</v>
+      </c>
+      <c r="D16" s="14">
+        <v>170</v>
+      </c>
+      <c r="E16" s="14">
+        <v>170</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1005</v>
+      </c>
+      <c r="D17" s="14">
+        <v>170</v>
+      </c>
+      <c r="E17" s="14">
+        <v>170</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1005</v>
+      </c>
+      <c r="D18" s="14">
+        <v>170</v>
+      </c>
+      <c r="E18" s="14">
+        <v>170</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2026</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1005</v>
+      </c>
+      <c r="D19" s="14">
+        <v>170</v>
+      </c>
+      <c r="E19" s="14">
+        <v>170</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2027</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2028</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2029</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2031</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2032</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2033</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2034</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2035</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C29" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+      <c r="D29" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+      <c r="E29" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+      <c r="F29" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C30" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+      <c r="E30" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+      <c r="F30" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="9">
+        <v>2011</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C34" s="13">
+        <v>794.77618758581002</v>
+      </c>
+      <c r="D34" s="13">
+        <v>794.77618758581002</v>
+      </c>
+      <c r="E34" s="13">
+        <v>794.77618758581002</v>
+      </c>
+      <c r="F34" s="13">
+        <v>794.77618758581002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C35" s="13">
+        <v>484.81303637444501</v>
+      </c>
+      <c r="D35" s="13">
+        <v>484.81303637444501</v>
+      </c>
+      <c r="E35" s="13">
+        <v>484.81303637444501</v>
+      </c>
+      <c r="F35" s="13">
+        <v>484.81303637444501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C36" s="13">
+        <v>426.73445842616297</v>
+      </c>
+      <c r="D36" s="13">
+        <v>426.73445842616297</v>
+      </c>
+      <c r="E36" s="13">
+        <v>426.73445842616297</v>
+      </c>
+      <c r="F36" s="13">
+        <v>426.73445842616297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C37" s="13">
+        <v>479.421127239886</v>
+      </c>
+      <c r="D37" s="13">
+        <v>479.421127239886</v>
+      </c>
+      <c r="E37" s="13">
+        <v>479.421127239886</v>
+      </c>
+      <c r="F37" s="13">
+        <v>479.421127239886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C38" s="13">
+        <v>394.905212583278</v>
+      </c>
+      <c r="D38" s="13">
+        <v>394.905212583278</v>
+      </c>
+      <c r="E38" s="13">
+        <v>394.905212583278</v>
+      </c>
+      <c r="F38" s="13">
+        <v>394.905212583278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C39" s="13">
+        <v>554.37580583667602</v>
+      </c>
+      <c r="D39" s="13">
+        <v>554.37580583667602</v>
+      </c>
+      <c r="E39" s="13">
+        <v>554.37580583667602</v>
+      </c>
+      <c r="F39" s="13">
+        <v>554.37580583667602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="13">
+        <v>542.56100297474904</v>
+      </c>
+      <c r="D40" s="13">
+        <v>542.56100297474904</v>
+      </c>
+      <c r="E40" s="13">
+        <v>542.56100297474904</v>
+      </c>
+      <c r="F40" s="13">
+        <v>542.56100297474904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="13">
+        <v>470.23237236206</v>
+      </c>
+      <c r="D41" s="13">
+        <v>470.23237236206</v>
+      </c>
+      <c r="E41" s="13">
+        <v>470.23237236206</v>
+      </c>
+      <c r="F41" s="13">
+        <v>470.23237236206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C43" s="14">
+        <v>1100</v>
+      </c>
+      <c r="D43" s="14">
+        <v>800</v>
+      </c>
+      <c r="E43" s="14">
+        <v>800</v>
+      </c>
+      <c r="F43" s="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1200</v>
+      </c>
+      <c r="D44" s="14">
+        <v>600</v>
+      </c>
+      <c r="E44" s="14">
+        <v>600</v>
+      </c>
+      <c r="F44" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1300</v>
+      </c>
+      <c r="D45" s="14">
+        <v>400</v>
+      </c>
+      <c r="E45" s="14">
+        <v>400</v>
+      </c>
+      <c r="F45" s="14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="9">
+        <v>2026</v>
+      </c>
+      <c r="C46" s="14">
+        <v>1400</v>
+      </c>
+      <c r="D46" s="14">
+        <v>200</v>
+      </c>
+      <c r="E46" s="14">
+        <v>200</v>
+      </c>
+      <c r="F46" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="9">
+        <v>2027</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="9">
+        <v>2028</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="9">
+        <v>2029</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2031</v>
+      </c>
+      <c r="C51" s="14">
+        <v>0</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="9">
+        <v>2032</v>
+      </c>
+      <c r="C52" s="14">
+        <v>0</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="9">
+        <v>2033</v>
+      </c>
+      <c r="C53" s="14">
+        <v>0</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="9">
+        <v>2034</v>
+      </c>
+      <c r="C54" s="14">
+        <v>0</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="9">
+        <v>2035</v>
+      </c>
+      <c r="C55" s="14">
+        <v>0</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C56" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+      <c r="D56" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+      <c r="E56" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+      <c r="F56" s="13">
+        <v>4138.5430364917702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C57" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+      <c r="D57" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+      <c r="E57" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+      <c r="F57" s="13">
+        <v>2508.3580080491101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="9">
+        <v>2011</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+      <c r="E58" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+      <c r="F58" s="13">
+        <v>1810.4770488322999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C59" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+      <c r="D59" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+      <c r="E59" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+      <c r="F59" s="13">
+        <v>1670.0024896247901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C60" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+      <c r="E60" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+      <c r="F60" s="13">
+        <v>1229.0940775173699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C61" s="13">
+        <v>794.77618758581002</v>
+      </c>
+      <c r="D61" s="13">
+        <v>794.77618758581002</v>
+      </c>
+      <c r="E61" s="13">
+        <v>794.77618758581002</v>
+      </c>
+      <c r="F61" s="13">
+        <v>794.77618758581002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C62" s="13">
+        <v>484.81303637444501</v>
+      </c>
+      <c r="D62" s="13">
+        <v>484.81303637444501</v>
+      </c>
+      <c r="E62" s="13">
+        <v>484.81303637444501</v>
+      </c>
+      <c r="F62" s="13">
+        <v>484.81303637444501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C63" s="13">
+        <v>426.73445842616297</v>
+      </c>
+      <c r="D63" s="13">
+        <v>426.73445842616297</v>
+      </c>
+      <c r="E63" s="13">
+        <v>426.73445842616297</v>
+      </c>
+      <c r="F63" s="13">
+        <v>426.73445842616297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C64" s="13">
+        <v>479.421127239886</v>
+      </c>
+      <c r="D64" s="13">
+        <v>479.421127239886</v>
+      </c>
+      <c r="E64" s="13">
+        <v>479.421127239886</v>
+      </c>
+      <c r="F64" s="13">
+        <v>479.421127239886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C65" s="13">
+        <v>394.905212583278</v>
+      </c>
+      <c r="D65" s="13">
+        <v>394.905212583278</v>
+      </c>
+      <c r="E65" s="13">
+        <v>394.905212583278</v>
+      </c>
+      <c r="F65" s="13">
+        <v>394.905212583278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="13">
+        <v>554.37580583667602</v>
+      </c>
+      <c r="D66" s="13">
+        <v>554.37580583667602</v>
+      </c>
+      <c r="E66" s="13">
+        <v>554.37580583667602</v>
+      </c>
+      <c r="F66" s="13">
+        <v>554.37580583667602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C67" s="13">
+        <v>542.56100297474904</v>
+      </c>
+      <c r="D67" s="13">
+        <v>542.56100297474904</v>
+      </c>
+      <c r="E67" s="13">
+        <v>542.56100297474904</v>
+      </c>
+      <c r="F67" s="13">
+        <v>542.56100297474904</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C68" s="13">
+        <v>470.23237236206</v>
+      </c>
+      <c r="D68" s="13">
+        <v>470.23237236206</v>
+      </c>
+      <c r="E68" s="13">
+        <v>470.23237236206</v>
+      </c>
+      <c r="F68" s="13">
+        <v>470.23237236206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C69" s="14">
+        <v>0</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0</v>
+      </c>
+      <c r="E69" s="14">
+        <v>0</v>
+      </c>
+      <c r="F69" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C70" s="14">
+        <v>0</v>
+      </c>
+      <c r="D70" s="14">
+        <v>0</v>
+      </c>
+      <c r="E70" s="14">
+        <v>0</v>
+      </c>
+      <c r="F70" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C71" s="14">
+        <v>0</v>
+      </c>
+      <c r="D71" s="14">
+        <v>0</v>
+      </c>
+      <c r="E71" s="14">
+        <v>0</v>
+      </c>
+      <c r="F71" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C72" s="14">
+        <v>0</v>
+      </c>
+      <c r="D72" s="14">
+        <v>0</v>
+      </c>
+      <c r="E72" s="14">
+        <v>0</v>
+      </c>
+      <c r="F72" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="9">
+        <v>2026</v>
+      </c>
+      <c r="C73" s="14">
+        <v>0</v>
+      </c>
+      <c r="D73" s="14">
+        <v>0</v>
+      </c>
+      <c r="E73" s="14">
+        <v>0</v>
+      </c>
+      <c r="F73" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="9">
+        <v>2027</v>
+      </c>
+      <c r="C74" s="14">
+        <v>0</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0</v>
+      </c>
+      <c r="E74" s="14">
+        <v>0</v>
+      </c>
+      <c r="F74" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="9">
+        <v>2028</v>
+      </c>
+      <c r="C75" s="14">
+        <v>0</v>
+      </c>
+      <c r="D75" s="14">
+        <v>0</v>
+      </c>
+      <c r="E75" s="14">
+        <v>0</v>
+      </c>
+      <c r="F75" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="9">
+        <v>2029</v>
+      </c>
+      <c r="C76" s="14">
+        <v>0</v>
+      </c>
+      <c r="D76" s="14">
+        <v>0</v>
+      </c>
+      <c r="E76" s="14">
+        <v>0</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C77" s="14">
+        <v>0</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="9">
+        <v>2031</v>
+      </c>
+      <c r="C78" s="14">
+        <v>0</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0</v>
+      </c>
+      <c r="E78" s="14">
+        <v>0</v>
+      </c>
+      <c r="F78" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="9">
+        <v>2032</v>
+      </c>
+      <c r="C79" s="14">
+        <v>0</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0</v>
+      </c>
+      <c r="E79" s="14">
+        <v>0</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="9">
+        <v>2033</v>
+      </c>
+      <c r="C80" s="14">
+        <v>0</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0</v>
+      </c>
+      <c r="E80" s="14">
+        <v>0</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="9">
+        <v>2034</v>
+      </c>
+      <c r="C81" s="14">
+        <v>0</v>
+      </c>
+      <c r="D81" s="14">
+        <v>0</v>
+      </c>
+      <c r="E81" s="14">
+        <v>0</v>
+      </c>
+      <c r="F81" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="9">
+        <v>2035</v>
+      </c>
+      <c r="C82" s="14">
+        <v>0</v>
+      </c>
+      <c r="D82" s="14">
+        <v>0</v>
+      </c>
+      <c r="E82" s="14">
+        <v>0</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+    </row>
+    <row r="147" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+    </row>
+    <row r="155" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+    </row>
+    <row r="156" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+    </row>
+    <row r="158" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+    </row>
+    <row r="159" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+    </row>
+    <row r="160" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+    </row>
+    <row r="163" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+    </row>
+    <row r="164" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+    </row>
+    <row r="165" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+    </row>
+    <row r="166" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+    </row>
+    <row r="168" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+    </row>
+    <row r="169" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+    </row>
+    <row r="174" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+    </row>
+    <row r="176" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+    </row>
+    <row r="182" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+    </row>
+    <row r="184" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+    </row>
+    <row r="185" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+    </row>
+    <row r="186" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+    </row>
+    <row r="188" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672A518A-A28A-4AA4-9D2D-C196F487DA76}">
+  <dimension ref="A1:BZ188"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="78" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C2" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D2" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E2" s="13">
+        <v>125</v>
+      </c>
+      <c r="F2" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D3" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E3" s="13">
+        <v>125</v>
+      </c>
+      <c r="F3" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2011</v>
+      </c>
+      <c r="C4" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D4" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E4" s="13">
+        <v>125</v>
+      </c>
+      <c r="F4" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C5" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D5" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E5" s="13">
+        <v>125</v>
+      </c>
+      <c r="F5" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C6" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D6" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E6" s="13">
+        <v>125</v>
+      </c>
+      <c r="F6" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C7" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D7" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E7" s="13">
+        <v>125</v>
+      </c>
+      <c r="F7" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D8" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E8" s="13">
+        <v>125</v>
+      </c>
+      <c r="F8" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C9" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D9" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E9" s="13">
+        <v>125</v>
+      </c>
+      <c r="F9" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D10" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E10" s="13">
+        <v>125</v>
+      </c>
+      <c r="F10" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D11" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E11" s="13">
+        <v>125</v>
+      </c>
+      <c r="F11" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D12" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E12" s="13">
+        <v>125</v>
+      </c>
+      <c r="F12" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D13" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E13" s="13">
+        <v>125</v>
+      </c>
+      <c r="F13" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="13">
+        <v>100</v>
+      </c>
+      <c r="D14" s="13">
+        <v>100</v>
+      </c>
+      <c r="E14" s="13">
+        <v>100</v>
+      </c>
+      <c r="F14" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="14">
+        <v>100</v>
+      </c>
+      <c r="D15" s="14">
+        <v>100</v>
+      </c>
+      <c r="E15" s="14">
+        <v>100</v>
+      </c>
+      <c r="F15" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="14">
+        <v>100</v>
+      </c>
+      <c r="D16" s="14">
+        <v>100</v>
+      </c>
+      <c r="E16" s="14">
+        <v>100</v>
+      </c>
+      <c r="F16" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="14">
+        <v>100</v>
+      </c>
+      <c r="D17" s="14">
+        <v>100</v>
+      </c>
+      <c r="E17" s="14">
+        <v>100</v>
+      </c>
+      <c r="F17" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="14">
+        <v>100</v>
+      </c>
+      <c r="D18" s="14">
+        <v>100</v>
+      </c>
+      <c r="E18" s="14">
+        <v>100</v>
+      </c>
+      <c r="F18" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2026</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2027</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2028</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2029</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2031</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2032</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2033</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2034</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2035</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C29" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D29" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E29" s="13">
+        <v>125</v>
+      </c>
+      <c r="F29" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C30" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D30" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E30" s="13">
+        <v>125</v>
+      </c>
+      <c r="F30" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="9">
+        <v>2011</v>
+      </c>
+      <c r="C31" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D31" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E31" s="13">
+        <v>125</v>
+      </c>
+      <c r="F31" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C32" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D32" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E32" s="13">
+        <v>125</v>
+      </c>
+      <c r="F32" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C33" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D33" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E33" s="13">
+        <v>125</v>
+      </c>
+      <c r="F33" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C34" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D34" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E34" s="13">
+        <v>125</v>
+      </c>
+      <c r="F34" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C35" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D35" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E35" s="13">
+        <v>125</v>
+      </c>
+      <c r="F35" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C36" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D36" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E36" s="13">
+        <v>125</v>
+      </c>
+      <c r="F36" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C37" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D37" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E37" s="13">
+        <v>125</v>
+      </c>
+      <c r="F37" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C38" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D38" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E38" s="13">
+        <v>125</v>
+      </c>
+      <c r="F38" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C39" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D39" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E39" s="13">
+        <v>125</v>
+      </c>
+      <c r="F39" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D40" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E40" s="13">
+        <v>125</v>
+      </c>
+      <c r="F40" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="9">
+        <v>2026</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="9">
+        <v>2027</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="9">
+        <v>2028</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="9">
+        <v>2029</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2031</v>
+      </c>
+      <c r="C51" s="14">
+        <v>0</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="9">
+        <v>2032</v>
+      </c>
+      <c r="C52" s="14">
+        <v>0</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="9">
+        <v>2033</v>
+      </c>
+      <c r="C53" s="14">
+        <v>0</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="9">
+        <v>2034</v>
+      </c>
+      <c r="C54" s="14">
+        <v>0</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="9">
+        <v>2035</v>
+      </c>
+      <c r="C55" s="14">
+        <v>0</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C56" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D56" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E56" s="13">
+        <v>125</v>
+      </c>
+      <c r="F56" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C57" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D57" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E57" s="13">
+        <v>125</v>
+      </c>
+      <c r="F57" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="9">
+        <v>2011</v>
+      </c>
+      <c r="C58" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D58" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E58" s="13">
+        <v>125</v>
+      </c>
+      <c r="F58" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C59" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D59" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E59" s="13">
+        <v>125</v>
+      </c>
+      <c r="F59" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C60" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D60" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E60" s="13">
+        <v>125</v>
+      </c>
+      <c r="F60" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C61" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D61" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E61" s="13">
+        <v>125</v>
+      </c>
+      <c r="F61" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C62" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D62" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E62" s="13">
+        <v>125</v>
+      </c>
+      <c r="F62" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C63" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D63" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E63" s="13">
+        <v>125</v>
+      </c>
+      <c r="F63" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C64" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D64" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E64" s="13">
+        <v>125</v>
+      </c>
+      <c r="F64" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C65" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D65" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E65" s="13">
+        <v>125</v>
+      </c>
+      <c r="F65" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D66" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E66" s="13">
+        <v>125</v>
+      </c>
+      <c r="F66" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C67" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D67" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E67" s="13">
+        <v>125</v>
+      </c>
+      <c r="F67" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C68" s="13">
+        <v>100</v>
+      </c>
+      <c r="D68" s="13">
+        <v>100</v>
+      </c>
+      <c r="E68" s="13">
+        <v>100</v>
+      </c>
+      <c r="F68" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C69" s="14">
+        <v>100</v>
+      </c>
+      <c r="D69" s="14">
+        <v>100</v>
+      </c>
+      <c r="E69" s="14">
+        <v>100</v>
+      </c>
+      <c r="F69" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C70" s="14">
+        <v>100</v>
+      </c>
+      <c r="D70" s="14">
+        <v>100</v>
+      </c>
+      <c r="E70" s="14">
+        <v>100</v>
+      </c>
+      <c r="F70" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C71" s="14">
+        <v>100</v>
+      </c>
+      <c r="D71" s="14">
+        <v>100</v>
+      </c>
+      <c r="E71" s="14">
+        <v>100</v>
+      </c>
+      <c r="F71" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C72" s="14">
+        <v>100</v>
+      </c>
+      <c r="D72" s="14">
+        <v>100</v>
+      </c>
+      <c r="E72" s="14">
+        <v>100</v>
+      </c>
+      <c r="F72" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="9">
+        <v>2026</v>
+      </c>
+      <c r="C73" s="14">
+        <v>0</v>
+      </c>
+      <c r="D73" s="14">
+        <v>0</v>
+      </c>
+      <c r="E73" s="14">
+        <v>0</v>
+      </c>
+      <c r="F73" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="9">
+        <v>2027</v>
+      </c>
+      <c r="C74" s="14">
+        <v>0</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0</v>
+      </c>
+      <c r="E74" s="14">
+        <v>0</v>
+      </c>
+      <c r="F74" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="9">
+        <v>2028</v>
+      </c>
+      <c r="C75" s="14">
+        <v>0</v>
+      </c>
+      <c r="D75" s="14">
+        <v>0</v>
+      </c>
+      <c r="E75" s="14">
+        <v>0</v>
+      </c>
+      <c r="F75" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="9">
+        <v>2029</v>
+      </c>
+      <c r="C76" s="14">
+        <v>0</v>
+      </c>
+      <c r="D76" s="14">
+        <v>0</v>
+      </c>
+      <c r="E76" s="14">
+        <v>0</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C77" s="14">
+        <v>0</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="9">
+        <v>2031</v>
+      </c>
+      <c r="C78" s="14">
+        <v>0</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0</v>
+      </c>
+      <c r="E78" s="14">
+        <v>0</v>
+      </c>
+      <c r="F78" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="9">
+        <v>2032</v>
+      </c>
+      <c r="C79" s="14">
+        <v>0</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0</v>
+      </c>
+      <c r="E79" s="14">
+        <v>0</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="9">
+        <v>2033</v>
+      </c>
+      <c r="C80" s="14">
+        <v>0</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0</v>
+      </c>
+      <c r="E80" s="14">
+        <v>0</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="9">
+        <v>2034</v>
+      </c>
+      <c r="C81" s="14">
+        <v>0</v>
+      </c>
+      <c r="D81" s="14">
+        <v>0</v>
+      </c>
+      <c r="E81" s="14">
+        <v>0</v>
+      </c>
+      <c r="F81" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="9">
+        <v>2035</v>
+      </c>
+      <c r="C82" s="14">
+        <v>0</v>
+      </c>
+      <c r="D82" s="14">
+        <v>0</v>
+      </c>
+      <c r="E82" s="14">
+        <v>0</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+    </row>
+    <row r="147" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+    </row>
+    <row r="155" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+    </row>
+    <row r="156" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+    </row>
+    <row r="158" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+    </row>
+    <row r="159" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+    </row>
+    <row r="160" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+    </row>
+    <row r="163" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+    </row>
+    <row r="164" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+    </row>
+    <row r="165" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+    </row>
+    <row r="166" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+    </row>
+    <row r="168" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+    </row>
+    <row r="169" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+    </row>
+    <row r="174" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+    </row>
+    <row r="176" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+    </row>
+    <row r="182" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+    </row>
+    <row r="184" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+    </row>
+    <row r="185" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+    </row>
+    <row r="186" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+    </row>
+    <row r="188" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F09929-64E0-4CAA-8538-7B8E8D3AD63C}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>2026</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>2027</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>2028</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>2029</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>2030</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>2031</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>2032</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2033</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>2034</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>2035</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NYPA DER Inputs.xlsx
+++ b/NYPA DER Inputs.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwelch\Documents\Repos\Nexant\SPIDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482E3094-55F9-4847-95A1-2BAA949B7981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432B60A0-EF84-43F9-A856-D7755326ABE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NYPA % of Natural Market" sheetId="1" r:id="rId1"/>
-    <sheet name="PV Suitability" sheetId="2" r:id="rId2"/>
-    <sheet name="PV Incentive" sheetId="5" r:id="rId3"/>
-    <sheet name="Storage Incentive" sheetId="4" r:id="rId4"/>
-    <sheet name="ITC" sheetId="3" r:id="rId5"/>
+    <sheet name="NYPA Market Fraction" sheetId="1" r:id="rId1"/>
+    <sheet name="PV Incentives" sheetId="5" r:id="rId2"/>
+    <sheet name="ITC" sheetId="3" r:id="rId3"/>
+    <sheet name="PV Suitability" sheetId="2" r:id="rId4"/>
+    <sheet name="Storage Incentive" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="NYPA_Mkt_Fraction">'NYPA % of Natural Market'!$A$1:$F$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Storage Incentive'!$A$1:$F$82</definedName>
+    <definedName name="NYPA_Mkt_Fraction">'NYPA Market Fraction'!$A$1:$F$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="59">
   <si>
     <t>Sector</t>
   </si>
@@ -215,18 +216,6 @@
   </si>
   <si>
     <t>% of installed cost</t>
-  </si>
-  <si>
-    <t>no change to community adders over time ($0.10/W for Downstate, 0 elsewhere)</t>
-  </si>
-  <si>
-    <t>parking canopy adder? Only applicable downstate. $0.20/W</t>
-  </si>
-  <si>
-    <t>"inclusive" CG adder of additional $0.10/W (not included)</t>
-  </si>
-  <si>
-    <t>upstate inclusive CG adder of $0.05 (not included in model)</t>
   </si>
 </sst>
 </file>
@@ -754,7 +743,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,6 +788,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1158,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,477 +3006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5D4315-607D-46E1-ADB0-514646580373}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C26" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C27" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D27" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C28" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D28" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C29" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C30" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="C31" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D31" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3AF6D9-9149-406C-AFB0-4BE71194DCC1}">
   <dimension ref="A1:BZ188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,16 +3054,16 @@
         <v>2009</v>
       </c>
       <c r="C2" s="13">
-        <v>4138.5430364917702</v>
+        <v>0</v>
       </c>
       <c r="D2" s="13">
-        <v>4138.5430364917702</v>
+        <v>0</v>
       </c>
       <c r="E2" s="13">
-        <v>4138.5430364917702</v>
+        <v>0</v>
       </c>
       <c r="F2" s="13">
-        <v>4138.5430364917702</v>
+        <v>0</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>48</v>
@@ -3554,16 +3080,16 @@
         <v>2010</v>
       </c>
       <c r="C3" s="13">
-        <v>2508.3580080491101</v>
+        <v>0</v>
       </c>
       <c r="D3" s="13">
-        <v>2508.3580080491101</v>
+        <v>0</v>
       </c>
       <c r="E3" s="13">
-        <v>2508.3580080491101</v>
+        <v>0</v>
       </c>
       <c r="F3" s="13">
-        <v>2508.3580080491101</v>
+        <v>0</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>49</v>
@@ -3580,16 +3106,16 @@
         <v>2011</v>
       </c>
       <c r="C4" s="13">
-        <v>1810.4770488322999</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
-        <v>1810.4770488322999</v>
+        <v>0</v>
       </c>
       <c r="E4" s="13">
-        <v>1810.4770488322999</v>
+        <v>0</v>
       </c>
       <c r="F4" s="13">
-        <v>1810.4770488322999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3600,16 +3126,16 @@
         <v>2012</v>
       </c>
       <c r="C5" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
       <c r="E5" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
       <c r="F5" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3620,16 +3146,16 @@
         <v>2013</v>
       </c>
       <c r="C6" s="13">
-        <v>1229.0940775173699</v>
+        <v>1079.9103420393601</v>
       </c>
       <c r="D6" s="13">
-        <v>1229.0940775173699</v>
+        <v>900.15756137480298</v>
       </c>
       <c r="E6" s="13">
-        <v>1229.0940775173699</v>
+        <v>802.81661219563796</v>
       </c>
       <c r="F6" s="13">
-        <v>1229.0940775173699</v>
+        <v>266.23754124701497</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3640,16 +3166,16 @@
         <v>2014</v>
       </c>
       <c r="C7" s="13">
-        <v>794.77618758581002</v>
+        <v>916.696869241179</v>
       </c>
       <c r="D7" s="13">
-        <v>794.77618758581002</v>
+        <v>688.48676035715596</v>
       </c>
       <c r="E7" s="13">
-        <v>794.77618758581002</v>
+        <v>739.32540575252494</v>
       </c>
       <c r="F7" s="13">
-        <v>794.77618758581002</v>
+        <v>513.59333409685303</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3660,16 +3186,16 @@
         <v>2015</v>
       </c>
       <c r="C8" s="13">
-        <v>484.81303637444501</v>
+        <v>642.86064038709503</v>
       </c>
       <c r="D8" s="13">
-        <v>484.81303637444501</v>
+        <v>623.77296205388996</v>
       </c>
       <c r="E8" s="13">
-        <v>484.81303637444501</v>
+        <v>761.28491676242595</v>
       </c>
       <c r="F8" s="13">
-        <v>484.81303637444501</v>
+        <v>233.06217692363401</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3680,16 +3206,16 @@
         <v>2016</v>
       </c>
       <c r="C9" s="13">
-        <v>426.73445842616297</v>
+        <v>539.28065932996697</v>
       </c>
       <c r="D9" s="13">
-        <v>426.73445842616297</v>
+        <v>461.98782925184798</v>
       </c>
       <c r="E9" s="13">
-        <v>426.73445842616297</v>
+        <v>412.36067745180497</v>
       </c>
       <c r="F9" s="13">
-        <v>426.73445842616297</v>
+        <v>268.26927209445898</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3700,16 +3226,16 @@
         <v>2017</v>
       </c>
       <c r="C10" s="13">
-        <v>479.421127239886</v>
+        <v>572.77178033458495</v>
       </c>
       <c r="D10" s="13">
-        <v>479.421127239886</v>
+        <v>413.27342003453703</v>
       </c>
       <c r="E10" s="13">
-        <v>479.421127239886</v>
+        <v>380.48193070388101</v>
       </c>
       <c r="F10" s="13">
-        <v>479.421127239886</v>
+        <v>175.43021552765799</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3720,16 +3246,16 @@
         <v>2018</v>
       </c>
       <c r="C11" s="13">
-        <v>394.905212583278</v>
+        <v>593.24435540906097</v>
       </c>
       <c r="D11" s="13">
-        <v>394.905212583278</v>
+        <v>360.14314333388103</v>
       </c>
       <c r="E11" s="13">
-        <v>394.905212583278</v>
+        <v>277.99620578684301</v>
       </c>
       <c r="F11" s="13">
-        <v>394.905212583278</v>
+        <v>187.867875114139</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3740,16 +3266,16 @@
         <v>2019</v>
       </c>
       <c r="C12" s="13">
-        <v>554.37580583667602</v>
+        <v>614.39536285215604</v>
       </c>
       <c r="D12" s="13">
-        <v>554.37580583667602</v>
+        <v>363.49721980558201</v>
       </c>
       <c r="E12" s="13">
-        <v>554.37580583667602</v>
+        <v>324.72347142927401</v>
       </c>
       <c r="F12" s="13">
-        <v>554.37580583667602</v>
+        <v>184.55289986654699</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3760,16 +3286,16 @@
         <v>2020</v>
       </c>
       <c r="C13" s="13">
-        <v>542.56100297474904</v>
+        <v>648.76694307325397</v>
       </c>
       <c r="D13" s="13">
-        <v>542.56100297474904</v>
+        <v>359.29011258047302</v>
       </c>
       <c r="E13" s="13">
-        <v>542.56100297474904</v>
+        <v>346.297369364335</v>
       </c>
       <c r="F13" s="13">
-        <v>542.56100297474904</v>
+        <v>123.62582847011301</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3780,16 +3306,16 @@
         <v>2021</v>
       </c>
       <c r="C14" s="13">
-        <v>470.23237236206</v>
+        <v>535.45189768911598</v>
       </c>
       <c r="D14" s="13">
-        <v>470.23237236206</v>
+        <v>410.73554166445302</v>
       </c>
       <c r="E14" s="13">
-        <v>470.23237236206</v>
+        <v>348.02139083209801</v>
       </c>
       <c r="F14" s="13">
-        <v>470.23237236206</v>
+        <v>172.517013798329</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3803,16 +3329,13 @@
         <v>1005</v>
       </c>
       <c r="D15" s="14">
-        <v>170</v>
+        <v>410.73554166445302</v>
       </c>
       <c r="E15" s="14">
-        <v>170</v>
+        <v>348.02139083209801</v>
       </c>
       <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>59</v>
+        <v>172.517013798329</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3826,19 +3349,16 @@
         <v>1005</v>
       </c>
       <c r="D16" s="14">
-        <v>170</v>
+        <v>410.73554166445302</v>
       </c>
       <c r="E16" s="14">
-        <v>170</v>
+        <v>348.02139083209801</v>
       </c>
       <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172.517013798329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -3849,19 +3369,16 @@
         <v>1005</v>
       </c>
       <c r="D17" s="14">
-        <v>170</v>
+        <v>410.73554166445302</v>
       </c>
       <c r="E17" s="14">
-        <v>170</v>
+        <v>348.02139083209801</v>
       </c>
       <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172.517013798329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -3872,16 +3389,16 @@
         <v>1005</v>
       </c>
       <c r="D18" s="14">
-        <v>170</v>
+        <v>410.73554166445302</v>
       </c>
       <c r="E18" s="14">
-        <v>170</v>
+        <v>348.02139083209801</v>
       </c>
       <c r="F18" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172.517013798329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -3892,19 +3409,16 @@
         <v>1005</v>
       </c>
       <c r="D19" s="14">
-        <v>170</v>
+        <v>410.73554166445302</v>
       </c>
       <c r="E19" s="14">
-        <v>170</v>
+        <v>348.02139083209801</v>
       </c>
       <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172.517013798329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
@@ -3924,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -3944,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -3964,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -3984,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -4004,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
@@ -4024,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -4044,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
@@ -4064,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -4084,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -4092,19 +3606,19 @@
         <v>2009</v>
       </c>
       <c r="C29" s="13">
-        <v>4138.5430364917702</v>
+        <v>0</v>
       </c>
       <c r="D29" s="13">
-        <v>4138.5430364917702</v>
+        <v>0</v>
       </c>
       <c r="E29" s="13">
-        <v>4138.5430364917702</v>
+        <v>0</v>
       </c>
       <c r="F29" s="13">
-        <v>4138.5430364917702</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -4112,19 +3626,19 @@
         <v>2010</v>
       </c>
       <c r="C30" s="13">
-        <v>2508.3580080491101</v>
+        <v>0</v>
       </c>
       <c r="D30" s="13">
-        <v>2508.3580080491101</v>
+        <v>0</v>
       </c>
       <c r="E30" s="13">
-        <v>2508.3580080491101</v>
+        <v>0</v>
       </c>
       <c r="F30" s="13">
-        <v>2508.3580080491101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -4132,19 +3646,19 @@
         <v>2011</v>
       </c>
       <c r="C31" s="13">
-        <v>1810.4770488322999</v>
+        <v>0</v>
       </c>
       <c r="D31" s="13">
-        <v>1810.4770488322999</v>
+        <v>0</v>
       </c>
       <c r="E31" s="13">
-        <v>1810.4770488322999</v>
+        <v>0</v>
       </c>
       <c r="F31" s="13">
-        <v>1810.4770488322999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -4152,16 +3666,16 @@
         <v>2012</v>
       </c>
       <c r="C32" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
       <c r="D32" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
       <c r="E32" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
       <c r="F32" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4172,16 +3686,16 @@
         <v>2013</v>
       </c>
       <c r="C33" s="13">
-        <v>1229.0940775173699</v>
+        <v>1079.9103420393601</v>
       </c>
       <c r="D33" s="13">
-        <v>1229.0940775173699</v>
+        <v>900.15756137480298</v>
       </c>
       <c r="E33" s="13">
-        <v>1229.0940775173699</v>
+        <v>802.81661219563796</v>
       </c>
       <c r="F33" s="13">
-        <v>1229.0940775173699</v>
+        <v>266.23754124701497</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4192,16 +3706,16 @@
         <v>2014</v>
       </c>
       <c r="C34" s="13">
-        <v>794.77618758581002</v>
+        <v>916.696869241179</v>
       </c>
       <c r="D34" s="13">
-        <v>794.77618758581002</v>
+        <v>688.48676035715596</v>
       </c>
       <c r="E34" s="13">
-        <v>794.77618758581002</v>
+        <v>739.32540575252494</v>
       </c>
       <c r="F34" s="13">
-        <v>794.77618758581002</v>
+        <v>513.59333409685303</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4212,16 +3726,16 @@
         <v>2015</v>
       </c>
       <c r="C35" s="13">
-        <v>484.81303637444501</v>
+        <v>642.86064038709503</v>
       </c>
       <c r="D35" s="13">
-        <v>484.81303637444501</v>
+        <v>623.77296205388996</v>
       </c>
       <c r="E35" s="13">
-        <v>484.81303637444501</v>
+        <v>761.28491676242595</v>
       </c>
       <c r="F35" s="13">
-        <v>484.81303637444501</v>
+        <v>233.06217692363401</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4232,16 +3746,16 @@
         <v>2016</v>
       </c>
       <c r="C36" s="13">
-        <v>426.73445842616297</v>
+        <v>539.28065932996697</v>
       </c>
       <c r="D36" s="13">
-        <v>426.73445842616297</v>
+        <v>461.98782925184798</v>
       </c>
       <c r="E36" s="13">
-        <v>426.73445842616297</v>
+        <v>412.36067745180497</v>
       </c>
       <c r="F36" s="13">
-        <v>426.73445842616297</v>
+        <v>268.26927209445898</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4252,16 +3766,16 @@
         <v>2017</v>
       </c>
       <c r="C37" s="13">
-        <v>479.421127239886</v>
+        <v>572.77178033458495</v>
       </c>
       <c r="D37" s="13">
-        <v>479.421127239886</v>
+        <v>413.27342003453703</v>
       </c>
       <c r="E37" s="13">
-        <v>479.421127239886</v>
+        <v>380.48193070388101</v>
       </c>
       <c r="F37" s="13">
-        <v>479.421127239886</v>
+        <v>175.43021552765799</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4272,16 +3786,16 @@
         <v>2018</v>
       </c>
       <c r="C38" s="13">
-        <v>394.905212583278</v>
+        <v>593.24435540906097</v>
       </c>
       <c r="D38" s="13">
-        <v>394.905212583278</v>
+        <v>360.14314333388103</v>
       </c>
       <c r="E38" s="13">
-        <v>394.905212583278</v>
+        <v>277.99620578684301</v>
       </c>
       <c r="F38" s="13">
-        <v>394.905212583278</v>
+        <v>187.867875114139</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4292,16 +3806,16 @@
         <v>2019</v>
       </c>
       <c r="C39" s="13">
-        <v>554.37580583667602</v>
+        <v>614.39536285215604</v>
       </c>
       <c r="D39" s="13">
-        <v>554.37580583667602</v>
+        <v>363.49721980558201</v>
       </c>
       <c r="E39" s="13">
-        <v>554.37580583667602</v>
+        <v>324.72347142927401</v>
       </c>
       <c r="F39" s="13">
-        <v>554.37580583667602</v>
+        <v>184.55289986654699</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,16 +3826,16 @@
         <v>2020</v>
       </c>
       <c r="C40" s="13">
-        <v>542.56100297474904</v>
+        <v>648.76694307325397</v>
       </c>
       <c r="D40" s="13">
-        <v>542.56100297474904</v>
+        <v>359.29011258047302</v>
       </c>
       <c r="E40" s="13">
-        <v>542.56100297474904</v>
+        <v>346.297369364335</v>
       </c>
       <c r="F40" s="13">
-        <v>542.56100297474904</v>
+        <v>123.62582847011301</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4332,16 +3846,16 @@
         <v>2021</v>
       </c>
       <c r="C41" s="13">
-        <v>470.23237236206</v>
+        <v>535.45189768911598</v>
       </c>
       <c r="D41" s="13">
-        <v>470.23237236206</v>
+        <v>410.73554166445302</v>
       </c>
       <c r="E41" s="13">
-        <v>470.23237236206</v>
+        <v>348.02139083209801</v>
       </c>
       <c r="F41" s="13">
-        <v>470.23237236206</v>
+        <v>172.517013798329</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,16 +3866,16 @@
         <v>2022</v>
       </c>
       <c r="C42" s="14">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D42" s="14">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="E42" s="14">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="F42" s="14">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4372,16 +3886,16 @@
         <v>2023</v>
       </c>
       <c r="C43" s="14">
-        <v>1100</v>
+        <v>1005</v>
       </c>
       <c r="D43" s="14">
-        <v>800</v>
+        <v>170</v>
       </c>
       <c r="E43" s="14">
-        <v>800</v>
+        <v>170</v>
       </c>
       <c r="F43" s="14">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4392,16 +3906,16 @@
         <v>2024</v>
       </c>
       <c r="C44" s="14">
-        <v>1200</v>
+        <v>1005</v>
       </c>
       <c r="D44" s="14">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="E44" s="14">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="F44" s="14">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4412,16 +3926,16 @@
         <v>2025</v>
       </c>
       <c r="C45" s="14">
-        <v>1300</v>
+        <v>1005</v>
       </c>
       <c r="D45" s="14">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="E45" s="14">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="F45" s="14">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4432,16 +3946,16 @@
         <v>2026</v>
       </c>
       <c r="C46" s="14">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D46" s="14">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E46" s="14">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F46" s="14">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4632,16 +4146,16 @@
         <v>2009</v>
       </c>
       <c r="C56" s="13">
-        <v>4138.5430364917702</v>
+        <v>0</v>
       </c>
       <c r="D56" s="13">
-        <v>4138.5430364917702</v>
+        <v>0</v>
       </c>
       <c r="E56" s="13">
-        <v>4138.5430364917702</v>
+        <v>0</v>
       </c>
       <c r="F56" s="13">
-        <v>4138.5430364917702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4652,16 +4166,16 @@
         <v>2010</v>
       </c>
       <c r="C57" s="13">
-        <v>2508.3580080491101</v>
+        <v>0</v>
       </c>
       <c r="D57" s="13">
-        <v>2508.3580080491101</v>
+        <v>0</v>
       </c>
       <c r="E57" s="13">
-        <v>2508.3580080491101</v>
+        <v>0</v>
       </c>
       <c r="F57" s="13">
-        <v>2508.3580080491101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4672,16 +4186,16 @@
         <v>2011</v>
       </c>
       <c r="C58" s="13">
-        <v>1810.4770488322999</v>
+        <v>0</v>
       </c>
       <c r="D58" s="13">
-        <v>1810.4770488322999</v>
+        <v>0</v>
       </c>
       <c r="E58" s="13">
-        <v>1810.4770488322999</v>
+        <v>0</v>
       </c>
       <c r="F58" s="13">
-        <v>1810.4770488322999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4692,16 +4206,16 @@
         <v>2012</v>
       </c>
       <c r="C59" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
       <c r="D59" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
       <c r="E59" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
       <c r="F59" s="13">
-        <v>1670.0024896247901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -4712,16 +4226,16 @@
         <v>2013</v>
       </c>
       <c r="C60" s="13">
-        <v>1229.0940775173699</v>
+        <v>1079.9103420393601</v>
       </c>
       <c r="D60" s="13">
-        <v>1229.0940775173699</v>
+        <v>900.15756137480298</v>
       </c>
       <c r="E60" s="13">
-        <v>1229.0940775173699</v>
+        <v>802.81661219563796</v>
       </c>
       <c r="F60" s="13">
-        <v>1229.0940775173699</v>
+        <v>266.23754124701497</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4732,16 +4246,16 @@
         <v>2014</v>
       </c>
       <c r="C61" s="13">
-        <v>794.77618758581002</v>
+        <v>916.696869241179</v>
       </c>
       <c r="D61" s="13">
-        <v>794.77618758581002</v>
+        <v>688.48676035715596</v>
       </c>
       <c r="E61" s="13">
-        <v>794.77618758581002</v>
+        <v>739.32540575252494</v>
       </c>
       <c r="F61" s="13">
-        <v>794.77618758581002</v>
+        <v>513.59333409685303</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4752,16 +4266,16 @@
         <v>2015</v>
       </c>
       <c r="C62" s="13">
-        <v>484.81303637444501</v>
+        <v>642.86064038709503</v>
       </c>
       <c r="D62" s="13">
-        <v>484.81303637444501</v>
+        <v>623.77296205388996</v>
       </c>
       <c r="E62" s="13">
-        <v>484.81303637444501</v>
+        <v>761.28491676242595</v>
       </c>
       <c r="F62" s="13">
-        <v>484.81303637444501</v>
+        <v>233.06217692363401</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4772,16 +4286,16 @@
         <v>2016</v>
       </c>
       <c r="C63" s="13">
-        <v>426.73445842616297</v>
+        <v>539.28065932996697</v>
       </c>
       <c r="D63" s="13">
-        <v>426.73445842616297</v>
+        <v>461.98782925184798</v>
       </c>
       <c r="E63" s="13">
-        <v>426.73445842616297</v>
+        <v>412.36067745180497</v>
       </c>
       <c r="F63" s="13">
-        <v>426.73445842616297</v>
+        <v>268.26927209445898</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4792,16 +4306,16 @@
         <v>2017</v>
       </c>
       <c r="C64" s="13">
-        <v>479.421127239886</v>
+        <v>572.77178033458495</v>
       </c>
       <c r="D64" s="13">
-        <v>479.421127239886</v>
+        <v>413.27342003453703</v>
       </c>
       <c r="E64" s="13">
-        <v>479.421127239886</v>
+        <v>380.48193070388101</v>
       </c>
       <c r="F64" s="13">
-        <v>479.421127239886</v>
+        <v>175.43021552765799</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4812,16 +4326,16 @@
         <v>2018</v>
       </c>
       <c r="C65" s="13">
-        <v>394.905212583278</v>
+        <v>593.24435540906097</v>
       </c>
       <c r="D65" s="13">
-        <v>394.905212583278</v>
+        <v>360.14314333388103</v>
       </c>
       <c r="E65" s="13">
-        <v>394.905212583278</v>
+        <v>277.99620578684301</v>
       </c>
       <c r="F65" s="13">
-        <v>394.905212583278</v>
+        <v>187.867875114139</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4832,16 +4346,16 @@
         <v>2019</v>
       </c>
       <c r="C66" s="13">
-        <v>554.37580583667602</v>
+        <v>614.39536285215604</v>
       </c>
       <c r="D66" s="13">
-        <v>554.37580583667602</v>
+        <v>363.49721980558201</v>
       </c>
       <c r="E66" s="13">
-        <v>554.37580583667602</v>
+        <v>324.72347142927401</v>
       </c>
       <c r="F66" s="13">
-        <v>554.37580583667602</v>
+        <v>184.55289986654699</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4852,16 +4366,16 @@
         <v>2020</v>
       </c>
       <c r="C67" s="13">
-        <v>542.56100297474904</v>
+        <v>648.76694307325397</v>
       </c>
       <c r="D67" s="13">
-        <v>542.56100297474904</v>
+        <v>359.29011258047302</v>
       </c>
       <c r="E67" s="13">
-        <v>542.56100297474904</v>
+        <v>346.297369364335</v>
       </c>
       <c r="F67" s="13">
-        <v>542.56100297474904</v>
+        <v>123.62582847011301</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4872,16 +4386,16 @@
         <v>2021</v>
       </c>
       <c r="C68" s="13">
-        <v>470.23237236206</v>
+        <v>535.45189768911598</v>
       </c>
       <c r="D68" s="13">
-        <v>470.23237236206</v>
+        <v>410.73554166445302</v>
       </c>
       <c r="E68" s="13">
-        <v>470.23237236206</v>
+        <v>348.02139083209801</v>
       </c>
       <c r="F68" s="13">
-        <v>470.23237236206</v>
+        <v>172.517013798329</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4892,13 +4406,13 @@
         <v>2022</v>
       </c>
       <c r="C69" s="14">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D69" s="14">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E69" s="14">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F69" s="14">
         <v>0</v>
@@ -4912,13 +4426,13 @@
         <v>2023</v>
       </c>
       <c r="C70" s="14">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D70" s="14">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E70" s="14">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F70" s="14">
         <v>0</v>
@@ -4932,13 +4446,13 @@
         <v>2024</v>
       </c>
       <c r="C71" s="14">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D71" s="14">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E71" s="14">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F71" s="14">
         <v>0</v>
@@ -5911,2432 +5425,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672A518A-A28A-4AA4-9D2D-C196F487DA76}">
-  <dimension ref="A1:BZ188"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="78" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="9">
-        <v>2009</v>
-      </c>
-      <c r="C2" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D2" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E2" s="13">
-        <v>125</v>
-      </c>
-      <c r="F2" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C3" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D3" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E3" s="13">
-        <v>125</v>
-      </c>
-      <c r="F3" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2011</v>
-      </c>
-      <c r="C4" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D4" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E4" s="13">
-        <v>125</v>
-      </c>
-      <c r="F4" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C5" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D5" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E5" s="13">
-        <v>125</v>
-      </c>
-      <c r="F5" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C6" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D6" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E6" s="13">
-        <v>125</v>
-      </c>
-      <c r="F6" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C7" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D7" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E7" s="13">
-        <v>125</v>
-      </c>
-      <c r="F7" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C8" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D8" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E8" s="13">
-        <v>125</v>
-      </c>
-      <c r="F8" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C9" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D9" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E9" s="13">
-        <v>125</v>
-      </c>
-      <c r="F9" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C10" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D10" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E10" s="13">
-        <v>125</v>
-      </c>
-      <c r="F10" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C11" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D11" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E11" s="13">
-        <v>125</v>
-      </c>
-      <c r="F11" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C12" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D12" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E12" s="13">
-        <v>125</v>
-      </c>
-      <c r="F12" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C13" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D13" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E13" s="13">
-        <v>125</v>
-      </c>
-      <c r="F13" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="13">
-        <v>100</v>
-      </c>
-      <c r="D14" s="13">
-        <v>100</v>
-      </c>
-      <c r="E14" s="13">
-        <v>100</v>
-      </c>
-      <c r="F14" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C15" s="14">
-        <v>100</v>
-      </c>
-      <c r="D15" s="14">
-        <v>100</v>
-      </c>
-      <c r="E15" s="14">
-        <v>100</v>
-      </c>
-      <c r="F15" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="9">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="14">
-        <v>100</v>
-      </c>
-      <c r="D16" s="14">
-        <v>100</v>
-      </c>
-      <c r="E16" s="14">
-        <v>100</v>
-      </c>
-      <c r="F16" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C17" s="14">
-        <v>100</v>
-      </c>
-      <c r="D17" s="14">
-        <v>100</v>
-      </c>
-      <c r="E17" s="14">
-        <v>100</v>
-      </c>
-      <c r="F17" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C18" s="14">
-        <v>100</v>
-      </c>
-      <c r="D18" s="14">
-        <v>100</v>
-      </c>
-      <c r="E18" s="14">
-        <v>100</v>
-      </c>
-      <c r="F18" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="9">
-        <v>2026</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="9">
-        <v>2027</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="9">
-        <v>2028</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="9">
-        <v>2029</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="9">
-        <v>2030</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="9">
-        <v>2031</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="9">
-        <v>2032</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="9">
-        <v>2033</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0</v>
-      </c>
-      <c r="D26" s="14">
-        <v>0</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="9">
-        <v>2034</v>
-      </c>
-      <c r="C27" s="14">
-        <v>0</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="9">
-        <v>2035</v>
-      </c>
-      <c r="C28" s="14">
-        <v>0</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0</v>
-      </c>
-      <c r="F28" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="9">
-        <v>2009</v>
-      </c>
-      <c r="C29" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D29" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E29" s="13">
-        <v>125</v>
-      </c>
-      <c r="F29" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C30" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D30" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E30" s="13">
-        <v>125</v>
-      </c>
-      <c r="F30" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="9">
-        <v>2011</v>
-      </c>
-      <c r="C31" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D31" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E31" s="13">
-        <v>125</v>
-      </c>
-      <c r="F31" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C32" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D32" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E32" s="13">
-        <v>125</v>
-      </c>
-      <c r="F32" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C33" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D33" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E33" s="13">
-        <v>125</v>
-      </c>
-      <c r="F33" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C34" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D34" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E34" s="13">
-        <v>125</v>
-      </c>
-      <c r="F34" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C35" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D35" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E35" s="13">
-        <v>125</v>
-      </c>
-      <c r="F35" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C36" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D36" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E36" s="13">
-        <v>125</v>
-      </c>
-      <c r="F36" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C37" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D37" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E37" s="13">
-        <v>125</v>
-      </c>
-      <c r="F37" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C38" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D38" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E38" s="13">
-        <v>125</v>
-      </c>
-      <c r="F38" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C39" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D39" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E39" s="13">
-        <v>125</v>
-      </c>
-      <c r="F39" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C40" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D40" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E40" s="13">
-        <v>125</v>
-      </c>
-      <c r="F40" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0</v>
-      </c>
-      <c r="D41" s="13">
-        <v>0</v>
-      </c>
-      <c r="E41" s="13">
-        <v>0</v>
-      </c>
-      <c r="F41" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C42" s="14">
-        <v>0</v>
-      </c>
-      <c r="D42" s="14">
-        <v>0</v>
-      </c>
-      <c r="E42" s="14">
-        <v>0</v>
-      </c>
-      <c r="F42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="9">
-        <v>2023</v>
-      </c>
-      <c r="C43" s="14">
-        <v>0</v>
-      </c>
-      <c r="D43" s="14">
-        <v>0</v>
-      </c>
-      <c r="E43" s="14">
-        <v>0</v>
-      </c>
-      <c r="F43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C44" s="14">
-        <v>0</v>
-      </c>
-      <c r="D44" s="14">
-        <v>0</v>
-      </c>
-      <c r="E44" s="14">
-        <v>0</v>
-      </c>
-      <c r="F44" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C45" s="14">
-        <v>0</v>
-      </c>
-      <c r="D45" s="14">
-        <v>0</v>
-      </c>
-      <c r="E45" s="14">
-        <v>0</v>
-      </c>
-      <c r="F45" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="9">
-        <v>2026</v>
-      </c>
-      <c r="C46" s="14">
-        <v>0</v>
-      </c>
-      <c r="D46" s="14">
-        <v>0</v>
-      </c>
-      <c r="E46" s="14">
-        <v>0</v>
-      </c>
-      <c r="F46" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="9">
-        <v>2027</v>
-      </c>
-      <c r="C47" s="14">
-        <v>0</v>
-      </c>
-      <c r="D47" s="14">
-        <v>0</v>
-      </c>
-      <c r="E47" s="14">
-        <v>0</v>
-      </c>
-      <c r="F47" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="9">
-        <v>2028</v>
-      </c>
-      <c r="C48" s="14">
-        <v>0</v>
-      </c>
-      <c r="D48" s="14">
-        <v>0</v>
-      </c>
-      <c r="E48" s="14">
-        <v>0</v>
-      </c>
-      <c r="F48" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="9">
-        <v>2029</v>
-      </c>
-      <c r="C49" s="14">
-        <v>0</v>
-      </c>
-      <c r="D49" s="14">
-        <v>0</v>
-      </c>
-      <c r="E49" s="14">
-        <v>0</v>
-      </c>
-      <c r="F49" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="9">
-        <v>2030</v>
-      </c>
-      <c r="C50" s="14">
-        <v>0</v>
-      </c>
-      <c r="D50" s="14">
-        <v>0</v>
-      </c>
-      <c r="E50" s="14">
-        <v>0</v>
-      </c>
-      <c r="F50" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="9">
-        <v>2031</v>
-      </c>
-      <c r="C51" s="14">
-        <v>0</v>
-      </c>
-      <c r="D51" s="14">
-        <v>0</v>
-      </c>
-      <c r="E51" s="14">
-        <v>0</v>
-      </c>
-      <c r="F51" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="9">
-        <v>2032</v>
-      </c>
-      <c r="C52" s="14">
-        <v>0</v>
-      </c>
-      <c r="D52" s="14">
-        <v>0</v>
-      </c>
-      <c r="E52" s="14">
-        <v>0</v>
-      </c>
-      <c r="F52" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="9">
-        <v>2033</v>
-      </c>
-      <c r="C53" s="14">
-        <v>0</v>
-      </c>
-      <c r="D53" s="14">
-        <v>0</v>
-      </c>
-      <c r="E53" s="14">
-        <v>0</v>
-      </c>
-      <c r="F53" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="9">
-        <v>2034</v>
-      </c>
-      <c r="C54" s="14">
-        <v>0</v>
-      </c>
-      <c r="D54" s="14">
-        <v>0</v>
-      </c>
-      <c r="E54" s="14">
-        <v>0</v>
-      </c>
-      <c r="F54" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="9">
-        <v>2035</v>
-      </c>
-      <c r="C55" s="14">
-        <v>0</v>
-      </c>
-      <c r="D55" s="14">
-        <v>0</v>
-      </c>
-      <c r="E55" s="14">
-        <v>0</v>
-      </c>
-      <c r="F55" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="9">
-        <v>2009</v>
-      </c>
-      <c r="C56" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D56" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E56" s="13">
-        <v>125</v>
-      </c>
-      <c r="F56" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C57" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D57" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E57" s="13">
-        <v>125</v>
-      </c>
-      <c r="F57" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="9">
-        <v>2011</v>
-      </c>
-      <c r="C58" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D58" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E58" s="13">
-        <v>125</v>
-      </c>
-      <c r="F58" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C59" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D59" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E59" s="13">
-        <v>125</v>
-      </c>
-      <c r="F59" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C60" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D60" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E60" s="13">
-        <v>125</v>
-      </c>
-      <c r="F60" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C61" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D61" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E61" s="13">
-        <v>125</v>
-      </c>
-      <c r="F61" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C62" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D62" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E62" s="13">
-        <v>125</v>
-      </c>
-      <c r="F62" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C63" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D63" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E63" s="13">
-        <v>125</v>
-      </c>
-      <c r="F63" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C64" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D64" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E64" s="13">
-        <v>125</v>
-      </c>
-      <c r="F64" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C65" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D65" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E65" s="13">
-        <v>125</v>
-      </c>
-      <c r="F65" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D66" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E66" s="13">
-        <v>125</v>
-      </c>
-      <c r="F66" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C67" s="13">
-        <v>147.21170000000001</v>
-      </c>
-      <c r="D67" s="13">
-        <v>104.16670000000001</v>
-      </c>
-      <c r="E67" s="13">
-        <v>125</v>
-      </c>
-      <c r="F67" s="13">
-        <v>104.16670000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C68" s="13">
-        <v>100</v>
-      </c>
-      <c r="D68" s="13">
-        <v>100</v>
-      </c>
-      <c r="E68" s="13">
-        <v>100</v>
-      </c>
-      <c r="F68" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C69" s="14">
-        <v>100</v>
-      </c>
-      <c r="D69" s="14">
-        <v>100</v>
-      </c>
-      <c r="E69" s="14">
-        <v>100</v>
-      </c>
-      <c r="F69" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" s="9">
-        <v>2023</v>
-      </c>
-      <c r="C70" s="14">
-        <v>100</v>
-      </c>
-      <c r="D70" s="14">
-        <v>100</v>
-      </c>
-      <c r="E70" s="14">
-        <v>100</v>
-      </c>
-      <c r="F70" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C71" s="14">
-        <v>100</v>
-      </c>
-      <c r="D71" s="14">
-        <v>100</v>
-      </c>
-      <c r="E71" s="14">
-        <v>100</v>
-      </c>
-      <c r="F71" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C72" s="14">
-        <v>100</v>
-      </c>
-      <c r="D72" s="14">
-        <v>100</v>
-      </c>
-      <c r="E72" s="14">
-        <v>100</v>
-      </c>
-      <c r="F72" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="9">
-        <v>2026</v>
-      </c>
-      <c r="C73" s="14">
-        <v>0</v>
-      </c>
-      <c r="D73" s="14">
-        <v>0</v>
-      </c>
-      <c r="E73" s="14">
-        <v>0</v>
-      </c>
-      <c r="F73" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="9">
-        <v>2027</v>
-      </c>
-      <c r="C74" s="14">
-        <v>0</v>
-      </c>
-      <c r="D74" s="14">
-        <v>0</v>
-      </c>
-      <c r="E74" s="14">
-        <v>0</v>
-      </c>
-      <c r="F74" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="9">
-        <v>2028</v>
-      </c>
-      <c r="C75" s="14">
-        <v>0</v>
-      </c>
-      <c r="D75" s="14">
-        <v>0</v>
-      </c>
-      <c r="E75" s="14">
-        <v>0</v>
-      </c>
-      <c r="F75" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" s="9">
-        <v>2029</v>
-      </c>
-      <c r="C76" s="14">
-        <v>0</v>
-      </c>
-      <c r="D76" s="14">
-        <v>0</v>
-      </c>
-      <c r="E76" s="14">
-        <v>0</v>
-      </c>
-      <c r="F76" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="9">
-        <v>2030</v>
-      </c>
-      <c r="C77" s="14">
-        <v>0</v>
-      </c>
-      <c r="D77" s="14">
-        <v>0</v>
-      </c>
-      <c r="E77" s="14">
-        <v>0</v>
-      </c>
-      <c r="F77" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="9">
-        <v>2031</v>
-      </c>
-      <c r="C78" s="14">
-        <v>0</v>
-      </c>
-      <c r="D78" s="14">
-        <v>0</v>
-      </c>
-      <c r="E78" s="14">
-        <v>0</v>
-      </c>
-      <c r="F78" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B79" s="9">
-        <v>2032</v>
-      </c>
-      <c r="C79" s="14">
-        <v>0</v>
-      </c>
-      <c r="D79" s="14">
-        <v>0</v>
-      </c>
-      <c r="E79" s="14">
-        <v>0</v>
-      </c>
-      <c r="F79" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="9">
-        <v>2033</v>
-      </c>
-      <c r="C80" s="14">
-        <v>0</v>
-      </c>
-      <c r="D80" s="14">
-        <v>0</v>
-      </c>
-      <c r="E80" s="14">
-        <v>0</v>
-      </c>
-      <c r="F80" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="9">
-        <v>2034</v>
-      </c>
-      <c r="C81" s="14">
-        <v>0</v>
-      </c>
-      <c r="D81" s="14">
-        <v>0</v>
-      </c>
-      <c r="E81" s="14">
-        <v>0</v>
-      </c>
-      <c r="F81" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="9">
-        <v>2035</v>
-      </c>
-      <c r="C82" s="14">
-        <v>0</v>
-      </c>
-      <c r="D82" s="14">
-        <v>0</v>
-      </c>
-      <c r="E82" s="14">
-        <v>0</v>
-      </c>
-      <c r="F82" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-    </row>
-    <row r="104" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-    </row>
-    <row r="105" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-    </row>
-    <row r="113" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-    </row>
-    <row r="115" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-    </row>
-    <row r="116" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-    </row>
-    <row r="124" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-    </row>
-    <row r="126" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-    </row>
-    <row r="128" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-    </row>
-    <row r="129" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-    </row>
-    <row r="130" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-    </row>
-    <row r="133" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-    </row>
-    <row r="135" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-    </row>
-    <row r="139" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-    </row>
-    <row r="140" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-    </row>
-    <row r="141" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-    </row>
-    <row r="142" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-    </row>
-    <row r="146" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-    </row>
-    <row r="149" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-    </row>
-    <row r="150" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-    </row>
-    <row r="151" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-    </row>
-    <row r="152" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-    </row>
-    <row r="153" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-    </row>
-    <row r="154" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-    </row>
-    <row r="155" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-    </row>
-    <row r="156" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-    </row>
-    <row r="157" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-    </row>
-    <row r="158" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-    </row>
-    <row r="159" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-    </row>
-    <row r="160" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-    </row>
-    <row r="161" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-    </row>
-    <row r="162" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-    </row>
-    <row r="163" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-    </row>
-    <row r="164" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-    </row>
-    <row r="165" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-    </row>
-    <row r="166" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-    </row>
-    <row r="167" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-    </row>
-    <row r="168" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-    </row>
-    <row r="169" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-    </row>
-    <row r="170" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-    </row>
-    <row r="171" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-    </row>
-    <row r="172" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-    </row>
-    <row r="173" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-    </row>
-    <row r="174" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-    </row>
-    <row r="175" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-    </row>
-    <row r="176" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-    </row>
-    <row r="177" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-    </row>
-    <row r="178" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-    </row>
-    <row r="179" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-    </row>
-    <row r="180" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-    </row>
-    <row r="181" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-    </row>
-    <row r="182" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-    </row>
-    <row r="183" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-    </row>
-    <row r="184" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-    </row>
-    <row r="185" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-    </row>
-    <row r="186" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-    </row>
-    <row r="187" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-    </row>
-    <row r="188" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F09929-64E0-4CAA-8538-7B8E8D3AD63C}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8757,4 +5851,3192 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5D4315-607D-46E1-ADB0-514646580373}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="15" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672A518A-A28A-4AA4-9D2D-C196F487DA76}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BZ188"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68" style="4" customWidth="1"/>
+    <col min="10" max="78" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2011</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D13" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E13" s="13">
+        <v>125</v>
+      </c>
+      <c r="F13" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2026</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2027</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2028</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2029</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2031</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2032</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2033</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2034</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2035</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="9">
+        <v>2011</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0</v>
+      </c>
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D40" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E40" s="13">
+        <v>125</v>
+      </c>
+      <c r="F40" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="9">
+        <v>2026</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="9">
+        <v>2027</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="9">
+        <v>2028</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="9">
+        <v>2029</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2031</v>
+      </c>
+      <c r="C51" s="14">
+        <v>0</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="9">
+        <v>2032</v>
+      </c>
+      <c r="C52" s="14">
+        <v>0</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="9">
+        <v>2033</v>
+      </c>
+      <c r="C53" s="14">
+        <v>0</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="9">
+        <v>2034</v>
+      </c>
+      <c r="C54" s="14">
+        <v>0</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="9">
+        <v>2035</v>
+      </c>
+      <c r="C55" s="14">
+        <v>0</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="9">
+        <v>2009</v>
+      </c>
+      <c r="C56" s="13">
+        <v>0</v>
+      </c>
+      <c r="D56" s="13">
+        <v>0</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C57" s="13">
+        <v>0</v>
+      </c>
+      <c r="D57" s="13">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="9">
+        <v>2011</v>
+      </c>
+      <c r="C58" s="13">
+        <v>0</v>
+      </c>
+      <c r="D58" s="13">
+        <v>0</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C59" s="13">
+        <v>0</v>
+      </c>
+      <c r="D59" s="13">
+        <v>0</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="9">
+        <v>2013</v>
+      </c>
+      <c r="C60" s="13">
+        <v>0</v>
+      </c>
+      <c r="D60" s="13">
+        <v>0</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C61" s="13">
+        <v>0</v>
+      </c>
+      <c r="D61" s="13">
+        <v>0</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C62" s="13">
+        <v>0</v>
+      </c>
+      <c r="D62" s="13">
+        <v>0</v>
+      </c>
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C63" s="13">
+        <v>0</v>
+      </c>
+      <c r="D63" s="13">
+        <v>0</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C64" s="13">
+        <v>0</v>
+      </c>
+      <c r="D64" s="13">
+        <v>0</v>
+      </c>
+      <c r="E64" s="13">
+        <v>0</v>
+      </c>
+      <c r="F64" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C65" s="13">
+        <v>0</v>
+      </c>
+      <c r="D65" s="13">
+        <v>0</v>
+      </c>
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="13">
+        <v>0</v>
+      </c>
+      <c r="D66" s="13">
+        <v>0</v>
+      </c>
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C67" s="13">
+        <v>147.21170000000001</v>
+      </c>
+      <c r="D67" s="13">
+        <v>104.16670000000001</v>
+      </c>
+      <c r="E67" s="13">
+        <v>125</v>
+      </c>
+      <c r="F67" s="13">
+        <v>104.16670000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C68" s="13">
+        <v>0</v>
+      </c>
+      <c r="D68" s="13">
+        <v>0</v>
+      </c>
+      <c r="E68" s="13">
+        <v>0</v>
+      </c>
+      <c r="F68" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C69" s="14">
+        <v>0</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0</v>
+      </c>
+      <c r="E69" s="14">
+        <v>0</v>
+      </c>
+      <c r="F69" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C70" s="14">
+        <v>0</v>
+      </c>
+      <c r="D70" s="14">
+        <v>0</v>
+      </c>
+      <c r="E70" s="14">
+        <v>0</v>
+      </c>
+      <c r="F70" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C71" s="14">
+        <v>0</v>
+      </c>
+      <c r="D71" s="14">
+        <v>0</v>
+      </c>
+      <c r="E71" s="14">
+        <v>0</v>
+      </c>
+      <c r="F71" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C72" s="14">
+        <v>0</v>
+      </c>
+      <c r="D72" s="14">
+        <v>0</v>
+      </c>
+      <c r="E72" s="14">
+        <v>0</v>
+      </c>
+      <c r="F72" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="9">
+        <v>2026</v>
+      </c>
+      <c r="C73" s="14">
+        <v>0</v>
+      </c>
+      <c r="D73" s="14">
+        <v>0</v>
+      </c>
+      <c r="E73" s="14">
+        <v>0</v>
+      </c>
+      <c r="F73" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="9">
+        <v>2027</v>
+      </c>
+      <c r="C74" s="14">
+        <v>0</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0</v>
+      </c>
+      <c r="E74" s="14">
+        <v>0</v>
+      </c>
+      <c r="F74" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="9">
+        <v>2028</v>
+      </c>
+      <c r="C75" s="14">
+        <v>0</v>
+      </c>
+      <c r="D75" s="14">
+        <v>0</v>
+      </c>
+      <c r="E75" s="14">
+        <v>0</v>
+      </c>
+      <c r="F75" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="9">
+        <v>2029</v>
+      </c>
+      <c r="C76" s="14">
+        <v>0</v>
+      </c>
+      <c r="D76" s="14">
+        <v>0</v>
+      </c>
+      <c r="E76" s="14">
+        <v>0</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C77" s="14">
+        <v>0</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="9">
+        <v>2031</v>
+      </c>
+      <c r="C78" s="14">
+        <v>0</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0</v>
+      </c>
+      <c r="E78" s="14">
+        <v>0</v>
+      </c>
+      <c r="F78" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="9">
+        <v>2032</v>
+      </c>
+      <c r="C79" s="14">
+        <v>0</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0</v>
+      </c>
+      <c r="E79" s="14">
+        <v>0</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="9">
+        <v>2033</v>
+      </c>
+      <c r="C80" s="14">
+        <v>0</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0</v>
+      </c>
+      <c r="E80" s="14">
+        <v>0</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="9">
+        <v>2034</v>
+      </c>
+      <c r="C81" s="14">
+        <v>0</v>
+      </c>
+      <c r="D81" s="14">
+        <v>0</v>
+      </c>
+      <c r="E81" s="14">
+        <v>0</v>
+      </c>
+      <c r="F81" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="9">
+        <v>2035</v>
+      </c>
+      <c r="C82" s="14">
+        <v>0</v>
+      </c>
+      <c r="D82" s="14">
+        <v>0</v>
+      </c>
+      <c r="E82" s="14">
+        <v>0</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+    </row>
+    <row r="147" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+    </row>
+    <row r="155" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+    </row>
+    <row r="156" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+    </row>
+    <row r="158" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+    </row>
+    <row r="159" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+    </row>
+    <row r="160" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+    </row>
+    <row r="163" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+    </row>
+    <row r="164" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+    </row>
+    <row r="165" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+    </row>
+    <row r="166" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+    </row>
+    <row r="168" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+    </row>
+    <row r="169" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+    </row>
+    <row r="174" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+    </row>
+    <row r="176" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+    </row>
+    <row r="182" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+    </row>
+    <row r="184" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+    </row>
+    <row r="185" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+    </row>
+    <row r="186" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+    </row>
+    <row r="188" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F82" xr:uid="{F8D69784-659E-45EE-8CAA-8C8B3F61BFF3}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2020"/>
+        <filter val="2021"/>
+        <filter val="2022"/>
+        <filter val="2023"/>
+        <filter val="2024"/>
+        <filter val="2025"/>
+        <filter val="2026"/>
+        <filter val="2027"/>
+        <filter val="2028"/>
+        <filter val="2029"/>
+        <filter val="2030"/>
+        <filter val="2031"/>
+        <filter val="2032"/>
+        <filter val="2033"/>
+        <filter val="2034"/>
+        <filter val="2035"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB524B42B27E4940976072C0501F882A" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e948542490bc14756bb81ae64e6ba071">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="745c765d-0dce-43f1-8d63-fe8a95208816" xmlns:ns3="d232ea70-52df-455e-922f-efa9b1d5acc3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d13108e24f0d83a142a7b3ea6bc19447" ns2:_="" ns3:_="">
+    <xsd:import namespace="745c765d-0dce-43f1-8d63-fe8a95208816"/>
+    <xsd:import namespace="d232ea70-52df-455e-922f-efa9b1d5acc3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:NYPASharepoing" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="745c765d-0dce-43f1-8d63-fe8a95208816" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="NYPASharepoing" ma:index="12" nillable="true" ma:displayName="NYPA Sharepoing" ma:description="Contains all files provided by NYPA as well as the &quot;External&quot; Action Item List" ma:format="Hyperlink" ma:internalName="NYPASharepoing">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d232ea70-52df-455e-922f-efa9b1d5acc3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <NYPASharepoing xmlns="745c765d-0dce-43f1-8d63-fe8a95208816">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </NYPASharepoing>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8536524A-5AC1-480C-9F5F-14CFA1F901E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9517A13-BD56-404E-A774-F29A9673A76C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="745c765d-0dce-43f1-8d63-fe8a95208816"/>
+    <ds:schemaRef ds:uri="d232ea70-52df-455e-922f-efa9b1d5acc3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FC13AE-E65B-4140-AB2F-CF7C0E81D743}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="745c765d-0dce-43f1-8d63-fe8a95208816"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>